--- a/Data/Items.xlsx
+++ b/Data/Items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C374"/>
+  <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,5607 +434,4488 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Item_id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Item_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>Item_Name</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>39139</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>39139</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>Ravaging Sabatons</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>39140</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>39140</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Knife of Incision</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>39141</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>39141</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Deflection Band</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>39146</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39146</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>Collar of Dissolution</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>39188</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>39188</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>Chivalric Chestguard</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>39189</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>39189</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>Boots of Persistence</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>39190</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>39190</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>Agonal Sash</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>39191</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>39191</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>Splint-Bound Leggings</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>39192</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>39192</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>Gloves of Dark Gestures</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>39193</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>39193</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>Band of Neglected Pleas</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>39194</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>39194</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>Rusted-Link Spiked Gauntlets</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>39195</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>39195</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>Bracers of Lost Sentiments</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>39196</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>39196</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>Boots of the Worshiper</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>39197</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>39197</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>Gauntlets of the Master</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>39198</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>39198</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>Frostblight Pauldrons</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>39199</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>39199</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>Watchful Eye</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>39200</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>39200</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>Grieving Spellblade</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>39215</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>39215</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>Boots of the Follower</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>39216</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>39216</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>Sash of Mortal Desire</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>39217</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>39217</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>Avenging Combat Leggings</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>39221</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>39221</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>Wraith Spear</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>39224</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>39224</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>Leggings of Discord</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>39225</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>39225</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>Cloak of Armed Strife</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>39226</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>39226</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>Maexxna's Femur</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>39228</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>39228</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>Web Cocoon Grips</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>39229</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>39229</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>Embrace of the Spider</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>39230</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>39230</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>Spaulders of the Monstrosity</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>39231</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>39231</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
           <t>Timeworn Silken Band</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>39232</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>39232</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>Pendant of Lost Vocations</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>39233</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>39233</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>Aegis of Damnation</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>39234</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>39234</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>Plague-Impervious Boots</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>39235</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>39235</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>Bone-Framed Bracers</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>39236</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>39236</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>Trespasser's Boots</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>39237</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>39237</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
           <t>Spaulders of Resumed Battle</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>39239</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>39239</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>Chestplate of the Risen Soldier</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>39240</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>39240</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>Noth's Curse</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>39241</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>39241</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
           <t>Dark Shroud of the Scourge</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>39242</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>39242</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
           <t>Robes of Hoarse Breaths</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>39243</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>39243</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>Handgrips of the Foredoomed</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39244</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>39244</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
           <t>Ring of the Fated</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>39245</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>39245</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>Demise</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>39246</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>39246</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
           <t>Amulet of Autopsy</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>39247</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>39247</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
           <t>Cuffs of Dark Shadows</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>39248</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>39248</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
           <t>Tunic of the Lost Pack</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>39249</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>39249</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
           <t>Shoulderplates of Bloodshed</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>39250</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>39250</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
           <t>Ring of Holy Cleansing</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>39251</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>39251</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
           <t>Necrogenic Belt</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>39252</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>39252</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
           <t>Preceptor's Bindings</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>39254</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>39254</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
           <t>Saltarello Shoes</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>39255</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>39255</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
           <t>Staff of the Plague Beast</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>39256</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>39256</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
           <t>Sulfur Stave</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>39257</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>39257</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
           <t>Loatheb's Shadow</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>39258</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>39258</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
           <t>Legplates of Inescapable Death</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>39259</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>39259</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>Fungi-Stained Coverings</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>39260</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>39260</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
           <t>Helm of the Corrupted Mind</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>39261</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>39261</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
           <t>Tainted Girdle of Mending</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>39262</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>39262</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
           <t>Gauntlets of Combined Strength</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>39267</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>39267</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
           <t>Abomination Shoulderblades</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>39270</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>39270</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
           <t>Hatestrike</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>39271</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>39271</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
           <t>Blade of Dormant Memories</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>39272</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>39272</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
           <t>Drape of Surgery</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>39273</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>39273</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
           <t>Sullen Cloth Boots</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>39274</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>39274</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
           <t>Retcher's Shoulderpads</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>39275</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>39275</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
           <t>Contagion Gloves</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>39276</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>39276</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
           <t>The Skull of Ruin</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>39277</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>39277</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
           <t>Sealing Ring of Grobbulus</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>39278</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>39278</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
           <t>Bands of Anxiety</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>39279</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>39279</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
           <t>Blistered Belt of Decay</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>39280</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>39280</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
           <t>Leggings of Innumerable Barbs</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>39281</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>39281</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
           <t>Infection Repulser</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>39282</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>39282</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
           <t>Bone-Linked Amulet</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>39283</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>39283</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
           <t>Putrescent Bands</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>39284</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>39284</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
           <t>Miasma Mantle</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>39285</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>39285</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
           <t>Handgrips of Turmoil</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>39291</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>39291</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
           <t>Torment of the Banished</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>39292</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>39292</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
           <t>Repelling Charge</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>39293</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>39293</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
           <t>Blackened Legplates of Feugen</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>39294</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>39294</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
           <t>Arc-Scorched Helmet</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>39295</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>39295</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
           <t>Cowl of Sheet Lightning</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>39296</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>39296</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
           <t>Accursed Bow of the Elite</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>39297</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>39297</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
           <t>Cloak of Darkening</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>39298</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>39298</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
           <t>Waistguard of the Tutor</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>39299</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>39299</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
           <t>Rapid Attack Gloves</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>39306</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>39306</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
           <t>Plated Gloves of Relief</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>39307</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>39307</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
           <t>Iron Rings of Endurance</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>39308</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>39308</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
           <t>Girdle of Lenience</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>39309</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>39309</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
           <t>Leggings of the Instructor</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>39310</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>39310</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
           <t>Mantle of the Extensive Mind</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>39311</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>39311</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
           <t>Scepter of Murmuring Spirits</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>39344</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>39344</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
           <t>Slayer of the Lifeless</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>39345</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>39345</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
           <t>Girdle of the Ascended Phantom</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>39369</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>39369</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
           <t>Sabatons of Deathlike Gloom</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>39379</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>39379</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
           <t>Spectral Rider's Girdle</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>39386</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>39386</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
           <t>Tunic of Dislocation</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>39388</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>39388</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
           <t>Spirit-World Glass</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>39389</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>39389</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
           <t>Signet of the Malevolent</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>39390</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>39390</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
           <t>Resurgent Phantom Bindings</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>39391</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>39391</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
           <t>Heinous Mail Chestguard</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>39392</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>39392</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
           <t>Veiled Amulet of Life</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>39393</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>39393</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
           <t>Claymore of Ancient Power</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>39394</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>39394</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
           <t>Charmed Cierge</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>39395</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>39395</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
           <t>Thane's Tainted Greathelm</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>39396</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>39396</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
           <t>Gown of Blaumeux</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>39397</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>39397</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
           <t>Pauldrons of Havoc</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>39398</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>39398</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
           <t>Massive Skeletal Ribcage</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>39399</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>39399</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
           <t>Helm of the Vast Legions</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>39401</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>39401</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
           <t>Circle of Death</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>39403</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>39403</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
           <t>Helm of the Unsubmissive</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>39404</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>39404</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
           <t>Cloak of Mastery</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>39405</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>39405</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
           <t>Helmet of the Inner Sanctum</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>39407</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>39407</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
           <t>Circle of Life</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>39408</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>39408</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
           <t>Leggings of Sapphiron</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>39409</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>39409</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
           <t>Cowl of Winged Fear</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>39415</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>39415</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
           <t>Shroud of the Citadel</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>39416</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>39416</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
           <t>Kel'Thuzad's Reach</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>39417</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>39417</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
           <t>Death's Bite</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>39419</t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>39419</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
           <t>Nerubian Conquerer</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>39420</t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>39420</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
           <t>Anarchy</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>39421</t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>39421</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
           <t>Gem of Imprisoned Vassals</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>39422</t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>39422</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
           <t>Staff of the Plaguehound</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>39423</t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>39423</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
           <t>Hammer of the Astral Plane</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>39424</t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>39424</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
           <t>The Soulblade</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>39425</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>39425</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
           <t>Cloak of the Dying</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>39426</t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>39426</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
           <t>Wand of the Archlich</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>39427</t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>39427</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
           <t>Omen of Ruin</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>39467</t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>39467</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
           <t>Minion Bracers</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>39468</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>39468</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
           <t>The Stray</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>39470</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>39470</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
           <t>Medallion of the Disgraced</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>39472</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>39472</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
           <t>Chain of Latent Energies</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>39473</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>39473</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
           <t>Contortion</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>39701</t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>39701</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
           <t>Dawnwalkers</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>39702</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>39702</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
           <t>Arachnoid Gold Band</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>39703</t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>39703</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
           <t>Rescinding Grips</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>39704</t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>39704</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
           <t>Pauldrons of Unnatural Death</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>39706</t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>39706</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
           <t>Sabatons of Sudden Reprisal</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>39712</t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>39712</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
           <t>Gemmed Wand of the Nerubians</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>39714</t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>39714</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
           <t>Webbed Death</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>39716</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>39716</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
           <t>Shield of Assimilation</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>39717</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>39717</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
           <t>Inexorable Sabatons</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>39718</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>39718</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
           <t>Corpse Scarab Handguards</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>39719</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>39719</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
           <t>Mantle of the Locusts</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>39720</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>39720</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
           <t>Leggings of Atrophy</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>39721</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>39721</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
           <t>Sash of the Parlor</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>39722</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>39722</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
           <t>Swarm Bindings</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>39723</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>39723</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
           <t>Fire-Scorched Greathelm</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>39724</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>39724</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
           <t>Cult's Chestguard</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>39725</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>39725</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
           <t>Epaulets of the Grieving Servant</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>39726</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>39726</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
           <t>Callous-Hearted Gauntlets</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>39727</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>39727</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
           <t>Dislocating Handguards</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>39728</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>39728</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
           <t>Totem of Misery</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>39729</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>39729</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
           <t>Bracers of the Tyrant</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>39730</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>39730</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
           <t>Widow's Fury</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>39731</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>39731</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
           <t>Punctilious Bindings</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>39732</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>39732</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
           <t>Faerlina's Madness</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>39733</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>39733</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
           <t>Gloves of Token Respect</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>39734</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>39734</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
           <t>Atonement Greaves</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>39735</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>39735</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
           <t>Belt of False Dignity</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>39756</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>39756</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
           <t>Tunic of Prejudice</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>39757</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>39757</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
           <t>Idol of Worship</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>39758</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>39758</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
           <t>The Jawbone</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>39759</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>39759</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
           <t>Ablative Chitin Girdle</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>39760</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>39760</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
           <t>Helm of Diminished Pride</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>39761</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>39761</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
           <t>Infectious Skitterer Leggings</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>39762</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>39762</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
           <t>Torn Web Wrapping</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>39763</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>39763</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
           <t>Wraith Strike</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>39764</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>39764</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
           <t>Bindings of the Hapless Prey</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>39765</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>39765</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
           <t>Sinner's Bindings</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>39766</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>39766</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
           <t>Matriarch's Spawn</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>39767</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>39767</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
           <t>Undiminished Battleplate</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>39768</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>39768</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
           <t>Cowl of the Perished</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>40060</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>40060</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
           <t>Distorted Limbs</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>40061</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>40061</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
           <t>Quivering Tunic</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>40062</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>40062</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
           <t>Digested Silken Robes</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>40063</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>40063</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
           <t>Mantle of Shattered Kinship</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>40064</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>40064</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
           <t>Thunderstorm Amulet</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>40065</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>40065</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
           <t>Fool's Trial</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>40069</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>40069</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
           <t>Heritage</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>40071</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>40071</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
           <t>Chains of Adoration</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>40074</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>40074</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
           <t>Strong-Handed Ring</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>40075</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>40075</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
           <t>Ruthlessness</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>40080</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>40080</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
           <t>Lost Jewel</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>40107</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>40107</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
           <t>Sand-Worn Band</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>40108</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>40108</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
           <t>Seized Beauty</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>40184</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>40184</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
           <t>Crippled Treads</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>40185</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>40185</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
           <t>Shoulderguards of Opportunity</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>40186</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>40186</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
           <t>Thrusting Bands</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>40187</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>40187</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
           <t>Poignant Sabatons</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>40188</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>40188</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
           <t>Gauntlets of the Disobedient</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>40189</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>40189</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
           <t>Angry Dread</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>40190</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>40190</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
           <t>Spinning Fate</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>40191</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>40191</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
           <t>Libram of Radiance</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>40192</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>40192</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
           <t>Accursed Spine</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>40193</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>40193</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
           <t>Tunic of Masked Suffering</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>40196</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>40196</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
           <t>Legguards of the Undisturbed</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>40197</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>40197</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
           <t>Gloves of the Fallen Wizard</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>40198</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>40198</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
           <t>Bands of Impurity</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>40200</t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>40200</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
           <t>Belt of Potent Chanting</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>40201</t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>40201</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
           <t>Leggings of Colossal Strides</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>40203</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>40203</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
           <t>Breastplate of Tormented Rage</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>40204</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>40204</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
           <t>Legguards of the Apostle</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>40205</t>
+        </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>40205</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
           <t>Stalk-Skin Belt</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>40206</t>
+        </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>40206</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
           <t>Iron-Spring Jumpers</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>40207</t>
+        </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>40207</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
           <t>Sigil of Awareness</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>40208</t>
+        </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>40208</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
           <t>Cryptfiend's Bite</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>40209</t>
+        </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>40209</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
           <t>Bindings of the Decrepit</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>40210</t>
+        </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>40210</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
           <t>Chestguard of Bitter Charms</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>40233</t>
+        </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>40233</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
           <t>The Undeath Carrier</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>40234</t>
+        </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>40234</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
           <t>Heigan's Putrid Vestments</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>40235</t>
+        </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>40235</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
           <t>Helm of Pilgrimage</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>40236</t>
+        </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>40236</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
           <t>Serene Echoes</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>40237</t>
+        </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>40237</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
           <t>Eruption-Scarred Boots</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>40238</t>
+        </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>40238</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
           <t>Gloves of the Dancing Bear</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>40239</t>
+        </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>40239</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
           <t>The Hand of Nerub</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>40240</t>
+        </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>40240</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
           <t>Greaves of Turbulence</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>40241</t>
+        </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>40241</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
           <t>Girdle of Unity</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>40242</t>
+        </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>40242</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
           <t>Grotesque Handgrips</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>40243</t>
+        </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>40243</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
           <t>Footwraps of Vile Deceit</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>40244</t>
+        </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>40244</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
           <t>The Impossible Dream</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>40245</t>
+        </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>40245</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
           <t>Fading Glow</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>40246</t>
+        </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>40246</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
           <t>Boots of Impetuous Ideals</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>40247</t>
+        </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>40247</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
           <t>Cowl of Innocent Delight</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>40249</t>
+        </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>40249</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
           <t>Vest of Vitality</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>40250</t>
+        </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>40250</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
           <t>Aged Winter Cloak</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>40251</t>
+        </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>40251</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
           <t>Shroud of Luminosity</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>40252</t>
+        </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>40252</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
           <t>Cloak of the Shadowed Sun</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>40253</t>
+        </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>40253</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
           <t>Shawl of the Old Maid</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>40254</t>
+        </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>40254</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
           <t>Cloak of Averted Crisis</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>40255</t>
+        </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>40255</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
           <t>Dying Curse</t>
         </is>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>40256</t>
+        </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>40256</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
           <t>Grim Toll</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>40257</t>
+        </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>40257</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
           <t>Defender's Code</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>40258</t>
+        </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>40258</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
           <t>Forethought Talisman</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>40259</t>
+        </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>40259</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
           <t>Waistguard of Divine Grace</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>40260</t>
+        </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>40260</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
           <t>Belt of the Tortured</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>40261</t>
+        </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>40261</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
           <t>Crude Discolored Battlegrips</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>40262</t>
+        </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>40262</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
           <t>Gloves of Calculated Risk</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>40263</t>
+        </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>40263</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
           <t>Fleshless Girdle</t>
         </is>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>40264</t>
+        </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>40264</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
           <t>Split Greathammer</t>
         </is>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>40265</t>
+        </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>40265</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
           <t>Arrowsong</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>40266</t>
+        </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>40266</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
           <t>Hero's Surrender</t>
         </is>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>40267</t>
+        </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>40267</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
           <t>Totem of Hex</t>
         </is>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>40268</t>
+        </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>40268</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
           <t>Libram of Tolerance</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>40269</t>
+        </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>40269</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
           <t>Boots of Persuasion</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>40270</t>
+        </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>40270</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
           <t>Boots of Septic Wounds</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>40271</t>
+        </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>40271</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
           <t>Sash of Solitude</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>40272</t>
+        </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>40272</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
           <t>Girdle of the Gambit</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>40273</t>
+        </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>40273</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
           <t>Surplus Limb</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>40274</t>
+        </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>40274</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
           <t>Bracers of Liberation</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>40275</t>
+        </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>40275</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
           <t>Depraved Linked Belt</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>40277</t>
+        </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>40277</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
           <t>Tunic of Indulgence</t>
         </is>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>40278</t>
+        </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>40278</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
           <t>Girdle of Chivalry</t>
         </is>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>40279</t>
+        </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>40279</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
           <t>Chestguard of the Exhausted</t>
         </is>
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>40280</t>
+        </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>40280</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
           <t>Origin of Nightmares</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>40281</t>
+        </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>40281</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
           <t>Twilight Mist</t>
         </is>
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>40282</t>
+        </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>40282</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
           <t>Slime Stream Bands</t>
         </is>
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>40283</t>
+        </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>40283</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
           <t>Fallout Impervious Tunic</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>40284</t>
+        </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>40284</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
           <t>Plague Igniter</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>40285</t>
+        </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>40285</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
           <t>Desecrated Past</t>
         </is>
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>40286</t>
+        </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>40286</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
           <t>Mantle of the Corrupted</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>40287</t>
+        </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>40287</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
           <t>Cowl of Vanity</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>40288</t>
+        </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>40288</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
           <t>Spaulders of Incoherence</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>40289</t>
+        </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>40289</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
           <t>Sympathetic Amice</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>40294</t>
+        </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>40294</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
           <t>Riveted Abomination Leggings</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>40296</t>
+        </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>40296</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
           <t>Cover of Silence</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>40297</t>
+        </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>40297</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
           <t>Sabatons of Endurance</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>40298</t>
+        </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>40298</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
           <t>Faceguard of the Succumbed</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>40299</t>
+        </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>40299</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
           <t>Pauldrons of the Abandoned</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>40300</t>
+        </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>40300</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
           <t>Spire of Sunset</t>
         </is>
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>40301</t>
+        </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>40301</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
           <t>Cincture of Polarity</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>40302</t>
+        </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>40302</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
           <t>Benefactor's Gauntlets</t>
         </is>
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>40303</t>
+        </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>40303</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
           <t>Wraps of the Persecuted</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>40304</t>
+        </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>40304</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
           <t>Headpiece of Fungal Bloom</t>
         </is>
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>40305</t>
+        </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>40305</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
           <t>Spaulders of Egotism</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>40306</t>
+        </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>40306</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
           <t>Bracers of the Unholy Knight</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>40315</t>
+        </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>40315</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
           <t>Shoulderpads of Secret Arts</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>40316</t>
+        </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>40316</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
           <t>Gauntlets of Guiding Touch</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>40317</t>
+        </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>40317</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
           <t>Girdle of Razuvious</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>40318</t>
+        </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>40318</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
           <t>Legplates of Double Strikes</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>40319</t>
+        </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>40319</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
           <t>Chestpiece of Suspicion</t>
         </is>
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>40320</t>
+        </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>40320</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
           <t>Faithful Steel Sabatons</t>
         </is>
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>40321</t>
+        </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>40321</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
           <t>Idol of the Shooting Star</t>
         </is>
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>40322</t>
+        </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>40322</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
           <t>Totem of Dueling</t>
         </is>
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>40323</t>
+        </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>40323</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
           <t>Esteemed Bindings</t>
         </is>
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>40324</t>
+        </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>40324</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
           <t>Bands of Mutual Respect</t>
         </is>
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>40325</t>
+        </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>40325</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
           <t>Bindings of the Expansive Mind</t>
         </is>
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>40326</t>
+        </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>40326</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
           <t>Boots of Forlorn Wishes</t>
         </is>
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>40327</t>
+        </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>40327</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
           <t>Girdle of Recuperation</t>
         </is>
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>40328</t>
+        </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>40328</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
           <t>Helm of Vital Protection</t>
         </is>
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>40329</t>
+        </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>40329</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
           <t>Hood of the Exodus</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>40330</t>
+        </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>40330</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
           <t>Bracers of Unrelenting Attack</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>40331</t>
+        </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>40331</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
           <t>Leggings of Failed Escape</t>
         </is>
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>40332</t>
+        </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>40332</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
           <t>Abetment Bracers</t>
         </is>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>40333</t>
+        </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>40333</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
           <t>Leggings of Fleeting Moments</t>
         </is>
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>40334</t>
+        </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>40334</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
           <t>Burdened Shoulderplates</t>
         </is>
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>40335</t>
+        </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>40335</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
           <t>Touch of Horror</t>
         </is>
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>40336</t>
+        </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>40336</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
           <t>Life and Death</t>
         </is>
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>40337</t>
+        </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>40337</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
           <t>Libram of Resurgence</t>
         </is>
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>40338</t>
+        </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>40338</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
           <t>Bindings of Yearning</t>
         </is>
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>40339</t>
+        </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>40339</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
           <t>Gothik's Cowl</t>
         </is>
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>40340</t>
+        </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>40340</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
           <t>Helm of Unleashed Energy</t>
         </is>
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>40341</t>
+        </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>40341</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
           <t>Shackled Cinch</t>
         </is>
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>40342</t>
+        </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>40342</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
           <t>Idol of Awakening</t>
         </is>
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>40343</t>
+        </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>40343</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
           <t>Armageddon</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>40344</t>
+        </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>40344</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
           <t>Helm of the Grave</t>
         </is>
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>40345</t>
+        </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>40345</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
           <t>Broken Promise</t>
         </is>
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>40346</t>
+        </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>40346</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
           <t>Final Voyage</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>40347</t>
+        </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>40347</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
           <t>Zeliek's Gauntlets</t>
         </is>
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>40348</t>
+        </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>40348</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
           <t>Damnation</t>
         </is>
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>40349</t>
+        </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>40349</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
           <t>Gloves of Peaceful Death</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>40350</t>
+        </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>40350</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
           <t>Urn of Lost Memories</t>
         </is>
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>40351</t>
+        </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>40351</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
           <t>Mantle of the Fatigued Sage</t>
         </is>
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>40352</t>
+        </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>40352</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
           <t>Leggings of Voracious Shadows</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>40362</t>
+        </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>40362</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
           <t>Gloves of Fast Reactions</t>
         </is>
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>40363</t>
+        </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>40363</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
           <t>Bone-Inlaid Legguards</t>
         </is>
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>40365</t>
+        </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>40365</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
           <t>Breastplate of Frozen Pain</t>
         </is>
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>40366</t>
+        </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>40366</t>
-        </is>
-      </c>
-      <c r="C316" t="inlineStr">
-        <is>
           <t>Platehelm of the Great Wyrm</t>
         </is>
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>40367</t>
+        </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>40367</t>
-        </is>
-      </c>
-      <c r="C317" t="inlineStr">
-        <is>
           <t>Boots of the Great Construct</t>
         </is>
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>40368</t>
+        </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>40368</t>
-        </is>
-      </c>
-      <c r="C318" t="inlineStr">
-        <is>
           <t>Murder</t>
         </is>
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>40369</t>
+        </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>40369</t>
-        </is>
-      </c>
-      <c r="C319" t="inlineStr">
-        <is>
           <t>Icy Blast Amulet</t>
         </is>
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>40370</t>
+        </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>40370</t>
-        </is>
-      </c>
-      <c r="C320" t="inlineStr">
-        <is>
           <t>Gatekeeper</t>
         </is>
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>40371</t>
+        </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>40371</t>
-        </is>
-      </c>
-      <c r="C321" t="inlineStr">
-        <is>
           <t>Bandit's Insignia</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>40372</t>
+        </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>40372</t>
-        </is>
-      </c>
-      <c r="C322" t="inlineStr">
-        <is>
           <t>Rune of Repulsion</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>40373</t>
+        </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>40373</t>
-        </is>
-      </c>
-      <c r="C323" t="inlineStr">
-        <is>
           <t>Extract of Necromantic Power</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>40374</t>
+        </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>40374</t>
-        </is>
-      </c>
-      <c r="C324" t="inlineStr">
-        <is>
           <t>Cosmic Lights</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>40375</t>
+        </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>40375</t>
-        </is>
-      </c>
-      <c r="C325" t="inlineStr">
-        <is>
           <t>Ring of Decaying Beauty</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>40376</t>
+        </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>40376</t>
-        </is>
-      </c>
-      <c r="C326" t="inlineStr">
-        <is>
           <t>Legwraps of the Defeated Dragon</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>40377</t>
+        </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>40377</t>
-        </is>
-      </c>
-      <c r="C327" t="inlineStr">
-        <is>
           <t>Noble Birthright Pauldrons</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>40378</t>
+        </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>40378</t>
-        </is>
-      </c>
-      <c r="C328" t="inlineStr">
-        <is>
           <t>Ceaseless Pity</t>
         </is>
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>40379</t>
+        </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>40379</t>
-        </is>
-      </c>
-      <c r="C329" t="inlineStr">
-        <is>
           <t>Legguards of the Boneyard</t>
         </is>
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>40380</t>
+        </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>40380</t>
-        </is>
-      </c>
-      <c r="C330" t="inlineStr">
-        <is>
           <t>Gloves of Grandeur</t>
         </is>
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>40381</t>
+        </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>40381</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
           <t>Sympathy</t>
         </is>
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>40382</t>
+        </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>40382</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
           <t>Soul of the Dead</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>40383</t>
+        </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>40383</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
           <t>Calamity's Grasp</t>
         </is>
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>40384</t>
+        </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>40384</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
           <t>Betrayer of Humanity</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>40385</t>
+        </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>40385</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
           <t>Envoy of Mortality</t>
         </is>
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>40386</t>
+        </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>40386</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
           <t>Sinister Revenge</t>
         </is>
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>40387</t>
+        </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>40387</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
           <t>Boundless Ambition</t>
         </is>
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>40388</t>
+        </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>40388</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
           <t>Journey's End</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>40395</t>
+        </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>40395</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
           <t>Torch of Holy Fire</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>40396</t>
+        </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>40396</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
           <t>The Turning Tide</t>
         </is>
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>40398</t>
+        </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>40398</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
           <t>Leggings of Mortal Arrogance</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>40399</t>
+        </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>40399</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
           <t>Signet of Manifested Pain</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>40400</t>
+        </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>40400</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
           <t>Wall of Terror</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>40401</t>
+        </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>40401</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
           <t>Voice of Reason</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>40402</t>
+        </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>40402</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
           <t>Last Laugh</t>
         </is>
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>40403</t>
+        </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>40403</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
           <t>Drape of the Deadly Foe</t>
         </is>
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>40405</t>
+        </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>40405</t>
-        </is>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
           <t>Cape of the Unworthy Wizard</t>
         </is>
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>40602</t>
+        </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>40602</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
           <t>Robes of Mutation</t>
         </is>
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>40610</t>
+        </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>40610</t>
-        </is>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
           <t>Chestguard of the Lost Conqueror</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>40611</t>
+        </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>40611</t>
-        </is>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
           <t>Chestguard of the Lost Protector</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>40612</t>
+        </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>40612</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
           <t>Chestguard of the Lost Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>40616</t>
+        </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>40616</t>
-        </is>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
           <t>Helm of the Lost Conqueror</t>
         </is>
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>40617</t>
+        </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>40617</t>
-        </is>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
           <t>Helm of the Lost Protector</t>
         </is>
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>40618</t>
+        </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>40618</t>
-        </is>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
           <t>Helm of the Lost Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>40619</t>
+        </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>40619</t>
-        </is>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
           <t>Leggings of the Lost Conqueror</t>
         </is>
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>40620</t>
+        </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>40620</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
           <t>Leggings of the Lost Protector</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>40621</t>
+        </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>40621</t>
-        </is>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
           <t>Leggings of the Lost Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>40622</t>
+        </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>40622</t>
-        </is>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
           <t>Spaulders of the Lost Conqueror</t>
         </is>
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>40623</t>
+        </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>40623</t>
-        </is>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
           <t>Spaulders of the Lost Protector</t>
         </is>
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>40624</t>
+        </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>40624</t>
-        </is>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
           <t>Spaulders of the Lost Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>40625</t>
+        </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>40625</t>
-        </is>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
           <t>Breastplate of the Lost Conqueror</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>40626</t>
+        </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>40626</t>
-        </is>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
           <t>Breastplate of the Lost Protector</t>
         </is>
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>40627</t>
+        </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>40627</t>
-        </is>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
           <t>Breastplate of the Lost Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>40631</t>
+        </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>40631</t>
-        </is>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
           <t>Crown of the Lost Conqueror</t>
         </is>
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>40632</t>
+        </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>40632</t>
-        </is>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
           <t>Crown of the Lost Protector</t>
         </is>
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>40633</t>
+        </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>40633</t>
-        </is>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
           <t>Crown of the Lost Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>40634</t>
+        </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>40634</t>
-        </is>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
           <t>Legplates of the Lost Conqueror</t>
         </is>
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>40635</t>
+        </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>40635</t>
-        </is>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
           <t>Legplates of the Lost Protector</t>
         </is>
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>40636</t>
+        </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>40636</t>
-        </is>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
           <t>Legplates of the Lost Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>40637</t>
+        </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>40637</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
           <t>Mantle of the Lost Conqueror</t>
         </is>
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>40638</t>
+        </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>40638</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
           <t>Mantle of the Lost Protector</t>
         </is>
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>40639</t>
+        </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>40639</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
           <t>Mantle of the Lost Vanquisher</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>44569</t>
+        </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>44569</t>
-        </is>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
           <t>Key to the Focusing Iris</t>
         </is>
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>44577</t>
+        </is>
       </c>
       <c r="B374" t="inlineStr">
-        <is>
-          <t>44577</t>
-        </is>
-      </c>
-      <c r="C374" t="inlineStr">
         <is>
           <t>Heroic Key to the Focusing Iris</t>
         </is>
